--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1445.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1445.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.743756306582297</v>
+        <v>1.262227177619934</v>
       </c>
       <c r="B1">
-        <v>2.068283386170125</v>
+        <v>2.494179964065552</v>
       </c>
       <c r="C1">
-        <v>2.71928626292173</v>
+        <v>4.995416164398193</v>
       </c>
       <c r="D1">
-        <v>2.424191982793388</v>
+        <v>2.926954984664917</v>
       </c>
       <c r="E1">
-        <v>0.6079442999636434</v>
+        <v>1.105132102966309</v>
       </c>
     </row>
   </sheetData>
